--- a/SEIRD_data_12_7_2021.xlsx
+++ b/SEIRD_data_12_7_2021.xlsx
@@ -249,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6425,6 +6425,81 @@
       </c>
       <c r="X83" s="1" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <f aca="false">SUM(C84:X84)</f>
+        <v>2568</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6443,10 +6518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12665,6 +12740,81 @@
       </c>
       <c r="X83" s="1" t="n">
         <v>203</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <f aca="false">SUM(C84:X84)</f>
+        <v>972</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -12685,11 +12835,11 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -20713,6 +20863,102 @@
       <c r="X83" s="5" t="n">
         <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>177</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C84" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C84+Exposed!C84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D84+Exposed!D84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>195</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E84+Exposed!E84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>124</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F84+Exposed!F84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>109</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G84+Exposed!G84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>59</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H84+Exposed!H84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="I84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I84+Exposed!I84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>140</v>
+      </c>
+      <c r="J84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J84+Exposed!J84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <f aca="true" t="array" ref="K84:K84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K84+Exposed!K84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>42</v>
+      </c>
+      <c r="L84" s="5" t="n">
+        <f aca="true" t="array" ref="L84:L84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L84+Exposed!L84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>190</v>
+      </c>
+      <c r="M84" s="5" t="n">
+        <f aca="true" t="array" ref="M84:M84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M84+Exposed!M84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>36</v>
+      </c>
+      <c r="N84" s="5" t="n">
+        <f aca="true" t="array" ref="N84:N84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N84+Exposed!N84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+      <c r="O84" s="5" t="n">
+        <f aca="true" t="array" ref="O84:O84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O84+Exposed!O84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>250</v>
+      </c>
+      <c r="P84" s="5" t="n">
+        <f aca="true" t="array" ref="P84:P84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P84+Exposed!P84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q84" s="5" t="n">
+        <f aca="true" t="array" ref="Q84:Q84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q84+Exposed!Q84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>66</v>
+      </c>
+      <c r="R84" s="5" t="n">
+        <f aca="true" t="array" ref="R84:R84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R84+Exposed!R84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="S84" s="5" t="n">
+        <f aca="true" t="array" ref="S84:S84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S84+Exposed!S84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>143</v>
+      </c>
+      <c r="T84" s="5" t="n">
+        <f aca="true" t="array" ref="T84:T84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T84+Exposed!T84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>122</v>
+      </c>
+      <c r="U84" s="5" t="n">
+        <f aca="true" t="array" ref="U84:U84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U84+Exposed!U84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="V84" s="5" t="n">
+        <f aca="true" t="array" ref="V84:V84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V84+Exposed!V84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>240</v>
+      </c>
+      <c r="W84" s="5" t="n">
+        <f aca="true" t="array" ref="W84:W84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W84+Exposed!W84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>96</v>
+      </c>
+      <c r="X84" s="5" t="n">
+        <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20732,13 +20978,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -28687,6 +28933,102 @@
       <c r="X83" s="1" t="n">
         <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <f aca="true" t="array" ref="C84:C84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C84+Exposed!C84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <f aca="true" t="array" ref="D84:D84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D84+Exposed!D84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <f aca="true" t="array" ref="E84:E84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E84+Exposed!E84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <f aca="true" t="array" ref="F84:F84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F84+Exposed!F84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <f aca="true" t="array" ref="G84:G84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G84+Exposed!G84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <f aca="true" t="array" ref="H84:H84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H84+Exposed!H84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <f aca="true" t="array" ref="I84:I84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I84+Exposed!I84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <f aca="true" t="array" ref="J84:J84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J84+Exposed!J84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <f aca="true" t="array" ref="K84:K84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K84+Exposed!K84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <f aca="true" t="array" ref="L84:L84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L84+Exposed!L84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <f aca="true" t="array" ref="M84:M84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M84+Exposed!M84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <f aca="true" t="array" ref="N84:N84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N84+Exposed!N84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <f aca="true" t="array" ref="O84:O84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O84+Exposed!O84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>28</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <f aca="true" t="array" ref="P84:P84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P84+Exposed!P84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <f aca="true" t="array" ref="Q84:Q84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q84+Exposed!Q84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <f aca="true" t="array" ref="R84:R84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R84+Exposed!R84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <f aca="true" t="array" ref="S84:S84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S84+Exposed!S84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <f aca="true" t="array" ref="T84:T84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T84+Exposed!T84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <f aca="true" t="array" ref="U84:U84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U84+Exposed!U84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <f aca="true" t="array" ref="V84:V84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V84+Exposed!V84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>27</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <f aca="true" t="array" ref="W84:W84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W84+Exposed!W84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -28708,10 +29050,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -36744,8 +37086,102 @@
         <v>1161146</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B84,Deaths!B84)</f>
+        <v>8925702</v>
+      </c>
+      <c r="C84" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C84,Deaths!C84)</f>
+        <v>139452</v>
+      </c>
+      <c r="D84" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D84,Deaths!D84)</f>
+        <v>189329</v>
+      </c>
+      <c r="E84" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E84,Deaths!E84)</f>
+        <v>173938</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F84,Deaths!F84)</f>
+        <v>157777</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G84,Deaths!G84)</f>
+        <v>232061</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H84,Deaths!H84)</f>
+        <v>356372</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I84,Deaths!I84)</f>
+        <v>422084</v>
+      </c>
+      <c r="J84" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J84,Deaths!J84)</f>
+        <v>233170</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K84,Deaths!K84)</f>
+        <v>208674</v>
+      </c>
+      <c r="L84" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L84,Deaths!L84)</f>
+        <v>618226</v>
+      </c>
+      <c r="M84" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M84,Deaths!M84)</f>
+        <v>702966</v>
+      </c>
+      <c r="N84" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N84,Deaths!N84)</f>
+        <v>781395</v>
+      </c>
+      <c r="O84" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O84,Deaths!O84)</f>
+        <v>495892</v>
+      </c>
+      <c r="P84" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P84,Deaths!P84)</f>
+        <v>69305</v>
+      </c>
+      <c r="Q84" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q84,Deaths!Q84)</f>
+        <v>457218</v>
+      </c>
+      <c r="R84" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R84,Deaths!R84)</f>
+        <v>671215</v>
+      </c>
+      <c r="S84" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S84,Deaths!S84)</f>
+        <v>539208</v>
+      </c>
+      <c r="T84" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T84,Deaths!T84)</f>
+        <v>205239</v>
+      </c>
+      <c r="U84" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U84,Deaths!U84)</f>
+        <v>162146</v>
+      </c>
+      <c r="V84" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V84,Deaths!V84)</f>
+        <v>470293</v>
+      </c>
+      <c r="W84" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W84,Deaths!W84)</f>
+        <v>478726</v>
+      </c>
+      <c r="X84" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X84,Deaths!X84)</f>
+        <v>1161156</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
